--- a/documents/Published/Circular Gauge/CircularGaugeByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Circular Gauge/CircularGaugeByMAQSoftwareChecklist.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD800A9E-48E7-4BD5-B2E1-49A864C7D8C2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>S no</t>
   </si>
@@ -369,14 +370,6 @@
     <t>Yes - iPad</t>
   </si>
   <si>
-    <t>1. Drag 'Actual Sales' column in 'Actual Value' field
-2. Drag 'Target Sales' column in 'Target Value' field</t>
-  </si>
-  <si>
-    <t>1. Drag 'Gross' column in 'Tooltip' field
-2. Hover over the circle in the visual to see the tooltips</t>
-  </si>
-  <si>
     <t>Update Value and color of range 1</t>
   </si>
   <si>
@@ -429,6 +422,38 @@
     <t xml:space="preserve">1. Range 4 values should be updated from 75-100
 2. Range 4 color should be updated to 'pink'
 </t>
+  </si>
+  <si>
+    <t>Actual Value</t>
+  </si>
+  <si>
+    <t>Target Value</t>
+  </si>
+  <si>
+    <t>Actual value accept 0 values but negative values</t>
+  </si>
+  <si>
+    <t>Target value accept 0 values but negative values</t>
+  </si>
+  <si>
+    <t>1.Acual Value =0,Target Value=0                                            2.Actual Value=0,Target Value&gt; Actual Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Target Value=0,Target Value&lt; Actual Value    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Visual shows 0%                                                                                                                         2.Visual shows 0%            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Visual shows 100%            </t>
+  </si>
+  <si>
+    <t>1. Drag 'Last Year Sales' column in 'Actual Value' field
+2. Drag 'Target' column in 'Target Value' field and summarize it to sum</t>
+  </si>
+  <si>
+    <t>1. Drag 'Target' column in 'Tooltip' field
+2. Hover over the circle in the visual to see the tooltips</t>
   </si>
 </sst>
 </file>
@@ -520,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -543,12 +568,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -830,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -874,7 +900,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>42</v>
@@ -891,7 +917,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>77</v>
@@ -1064,55 +1090,81 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C17" s="11" t="s">
+    <row r="17" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C19" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D19" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="C20" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C19" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="12" t="s">
+    <row r="21" spans="2:5" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20" spans="3:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="C20" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="C21" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="3"/>
+      <c r="C22" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1308,29 +1360,29 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -1344,41 +1396,41 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+      <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="10"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
